--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62DE886-F2B9-415B-A5F8-A1336AFE7D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAC0A6-F86D-46D1-9C7C-D7916DE279A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12624" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12626" uniqueCount="432">
   <si>
     <t>Cliente</t>
   </si>
@@ -1319,6 +1319,9 @@
   <si>
     <t xml:space="preserve">No Compro este Trimestre:  - Frizze - AM - Dada - SMF 21 - Don David - Trapiche Reserva , Finca Las Moras - Alaris  - Antares  - Gordons </t>
   </si>
+  <si>
+    <t>sa</t>
+  </si>
 </sst>
 </file>
 
@@ -1682,9 +1685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6311"/>
+  <dimension ref="A1:D6312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
+      <selection activeCell="B6312" sqref="B6312"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90045,6 +90050,20 @@
         <v>360</v>
       </c>
     </row>
+    <row r="6312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6312">
+        <v>350000</v>
+      </c>
+      <c r="B6312" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6312" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6312" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAC0A6-F86D-46D1-9C7C-D7916DE279A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB8071-1CBA-4101-AB26-AE57960F9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:D6312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
-      <selection activeCell="B6312" sqref="B6312"/>
+      <selection activeCell="B6300" sqref="B6300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB8071-1CBA-4101-AB26-AE57960F9DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2137A56-2C2F-4D6C-86F5-6E91769EF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12626" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12628" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1322,6 +1322,12 @@
   <si>
     <t>sa</t>
   </si>
+  <si>
+    <t>Moriste en Madrid</t>
+  </si>
+  <si>
+    <t>Hijo nuestro bostero</t>
+  </si>
 </sst>
 </file>
 
@@ -1685,11 +1691,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6312"/>
+  <dimension ref="A1:D6313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6286" workbookViewId="0">
-      <selection activeCell="B6300" sqref="B6300"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90064,6 +90068,20 @@
         <v>431</v>
       </c>
     </row>
+    <row r="6313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6313">
+        <v>91218</v>
+      </c>
+      <c r="B6313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6313" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6313" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2137A56-2C2F-4D6C-86F5-6E91769EF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06098879-7F03-46ED-BA11-D747501ADA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12628" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1691,9 +1691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6313"/>
+  <dimension ref="A1:D6314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6279" workbookViewId="0">
+      <selection activeCell="C6298" sqref="C6298"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -90082,6 +90084,20 @@
         <v>433</v>
       </c>
     </row>
+    <row r="6314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6314">
+        <v>9122018</v>
+      </c>
+      <c r="B6314" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6314" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6314" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06098879-7F03-46ED-BA11-D747501ADA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903C8E5-981E-41CE-962A-62500528D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -1693,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
   <dimension ref="A1:D6314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6279" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6282" workbookViewId="0">
       <selection activeCell="C6298" sqref="C6298"/>
     </sheetView>
   </sheetViews>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903C8E5-981E-41CE-962A-62500528D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B30E9D-8F25-4701-A62B-5990D26761AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="436">
   <si>
     <t>Cliente</t>
   </si>
@@ -1328,6 +1328,12 @@
   <si>
     <t>Hijo nuestro bostero</t>
   </si>
+  <si>
+    <t>Quemaste tu chancha</t>
+  </si>
+  <si>
+    <t>Gallina bobo</t>
+  </si>
 </sst>
 </file>
 
@@ -1691,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6314"/>
+  <dimension ref="A1:D6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6282" workbookViewId="0">
-      <selection activeCell="C6298" sqref="C6298"/>
+    <sheetView tabSelected="1" topLeftCell="A6314" workbookViewId="0">
+      <selection activeCell="C6316" sqref="C6316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90098,6 +90104,17 @@
         <v>433</v>
       </c>
     </row>
+    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6315">
+        <v>2662011</v>
+      </c>
+      <c r="B6315" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6315" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B30E9D-8F25-4701-A62B-5990D26761AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E015D47-9518-46EC-BF19-1D70F53A891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:D6315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6314" workbookViewId="0">
-      <selection activeCell="C6316" sqref="C6316"/>
+      <selection activeCell="A6315" sqref="A6315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E015D47-9518-46EC-BF19-1D70F53A891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A419617-382C-4162-A2AA-A991849D583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1328,12 +1328,6 @@
   <si>
     <t>Hijo nuestro bostero</t>
   </si>
-  <si>
-    <t>Quemaste tu chancha</t>
-  </si>
-  <si>
-    <t>Gallina bobo</t>
-  </si>
 </sst>
 </file>
 
@@ -1697,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6315"/>
+  <dimension ref="A1:D6314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6314" workbookViewId="0">
-      <selection activeCell="A6315" sqref="A6315"/>
+    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
+      <selection activeCell="A6313" sqref="A6313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90064,7 +90058,7 @@
     </row>
     <row r="6312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6312">
-        <v>350000</v>
+        <v>654321</v>
       </c>
       <c r="B6312" s="1">
         <v>0</v>
@@ -90078,7 +90072,7 @@
     </row>
     <row r="6313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6313">
-        <v>91218</v>
+        <v>123456</v>
       </c>
       <c r="B6313" s="1">
         <v>0</v>
@@ -90102,17 +90096,6 @@
       </c>
       <c r="D6314" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6315">
-        <v>2662011</v>
-      </c>
-      <c r="B6315" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6315" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/CSV.xlsx
+++ b/CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A419617-382C-4162-A2AA-A991849D583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1B355-D9FE-41E1-803F-822449D3D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A04D6E8-6891-4E24-B039-048070772E57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="434">
   <si>
     <t>Cliente</t>
   </si>
@@ -1691,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0851C83-960D-4CD9-B69B-AB140051755F}">
-  <dimension ref="A1:D6314"/>
+  <dimension ref="A1:D6315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6299" workbookViewId="0">
-      <selection activeCell="A6313" sqref="A6313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90098,6 +90098,20 @@
         <v>433</v>
       </c>
     </row>
+    <row r="6315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6315">
+        <v>123456789</v>
+      </c>
+      <c r="B6315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6315" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6315" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
